--- a/src/main/webapp/template/缴费记录.xlsx
+++ b/src/main/webapp/template/缴费记录.xlsx
@@ -16,11 +16,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>姓名</t>
+    <t>缴费金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缴费金额</t>
+    <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,17 +373,17 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
